--- a/similarities/split_global/harmonic_similarity_timestamps_372.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_372.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,202 +484,194 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>isophonics_288</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>isophonics_53</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['A', 'E', 'B']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['D', 'A', 'E']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:32.920657', '0:00:39.410634')]</t>
+          <t>('0:00:03.071405', '0:00:13.973174')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:21.580000', '0:00:29.340000')]</t>
+          <t>('0:00:43.076000', '0:00:50.260000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=32.920657']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-288#t=3.071405</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=21.58']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=43.076</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>jaah_32</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['D:7', 'G', 'C:7']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>['Eb:7', 'Ab', 'Db:7']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:10.380000', '0:01:30.980000')]</t>
+          <t>('0:00:14.390000', '0:00:28.500000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:53.140000', '0:01:54.880000')]</t>
+          <t>('0:01:20.690000', '0:01:27.640000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=70.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=14.39</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=113.14']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=80.69</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>isophonics_57</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G', 'D']]</t>
+          <t>['A:7/G', 'D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['D:7', 'G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:03.044470', '0:00:14.983242')]</t>
+          <t>('0:00:57.420000', '0:01:05.660000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:02:07.600000', '0:02:13.760000')]</t>
+          <t>('0:00:57.401473', '0:01:02.625963')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=3.04447']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=57.42</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=127.6']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-57#t=57.401473</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>schubert-winterreise_94</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min', 'A#:min/F'], ['A#:min/F', 'F', 'A#:min'], ['G#:7', 'C#', 'A#:min'], ['C#/F', 'G#:7/D#', 'C#/F']]</t>
+          <t>['C:min', 'F:min', 'C:min/G']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min/A#', 'A#:min'], ['A#:min', 'F:maj', 'A#:min'], ['G#:7', 'C#:maj', 'A#:min'], ['C#:maj/F', 'G#:7', 'C#:maj']]</t>
+          <t>['A#:min', 'D#:min/A#', 'A#:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:24.680000', '0:00:31.240000'), ('0:00:08.400000', '0:00:12.140000'), ('0:00:13.360000', '0:00:20.940000'), ('0:00:38.360000', '0:00:40.940000'), ('0:00:43.340000', '0:00:45.200000')]</t>
+          <t>('0:00:09.600000', '0:00:13.300000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:14.500000', '0:01:20.420000'), ('0:00:25.480000', '0:00:32.800000'), ('0:00:11.700000', '0:00:20.020000'), ('0:00:36.980000', '0:00:42.420000'), ('0:00:35.220000', '0:00:40')]</t>
+          <t>('0:00:30.240000', '0:00:38.500000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=24.68', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=8.4', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=13.36', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=38.36', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=43.34']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=9.6</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=74.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=25.48', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=11.7', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=36.98', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=35.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=30.24</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -688,514 +680,546 @@
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_180</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:maj/G', 'G:min'], ['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:04.840000', '0:00:10.640000'), ('0:00:12.060000', '0:00:17.060000')]</t>
+          <t>('0:01:51.920000', '0:01:55.360000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:11.820000', '0:00:18.540000'), ('0:00:21.940000', '0:00:27.520000')]</t>
+          <t>('0:01:02.200000', '0:01:04.400000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=4.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=12.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=111.92</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=11.82', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=21.94']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
+          <t>schubert-winterreise_33</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:min', 'C:min'], ['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:min', 'C:min/G'], ['D#/G', 'A#:7/F', 'D#/G']]</t>
+          <t>['F:maj', 'C:7/A#', 'F:maj/A']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:03.584000', '0:00:13.841000'), ('0:00:48.001000', '0:00:54.307000')]</t>
+          <t>('0:01:05.440000', '0:01:06.820000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:07.220000', '0:00:10.760000'), ('0:00:38.200000', '0:00:39.980000')]</t>
+          <t>('0:01:14.900000', '0:01:26.120000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=3.584', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-164#t=48.001']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=65.44</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=7.22', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=38.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=74.9</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>schubert-winterreise_181</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>['Ab/b5', 'Ab:7', 'Db/3']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['D#:maj', 'D#:7', 'G#:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:19.860000', '0:00:22.320000')]</t>
+          <t>('0:00:05.320000', '0:00:06.840000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:22.770000', '0:00:29.490000')]</t>
+          <t>('0:00:17.980000', '0:00:26.320000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=19.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=5.32</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-66#t=22.77']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-181#t=17.98</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>schubert-winterreise_94</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G#:maj', 'D#:maj', 'G#:maj']]</t>
+          <t>['A#:min/F', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb', 'Eb']]</t>
+          <t>['G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:02:01.080000', '0:02:02.040000')]</t>
+          <t>('0:01:24.620000', '0:01:31.740000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:51.839081', '0:01:03.042709')]</t>
+          <t>('0:00:03.100000', '0:00:07.720000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=121.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=84.62</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=51.839081']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=3.1</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr"/>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_31</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>isophonics_224</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G', 'E:min', 'A:min'], ['G', 'C', 'G']]</t>
+          <t>['B:7/A', 'E:maj/G#', 'A:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'E:min', 'A:min/C'], ['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['E:7', 'A', 'D']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:26.115071', '0:00:38.793167'), ('0:00:17.581738', '0:00:30.271443')]</t>
+          <t>('0:00:54.620000', '0:01:00.500000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:08.840000', '0:00:16.860000'), ('0:00:18.120000', '0:00:24.540000')]</t>
+          <t>('0:00:26.987959', '0:00:33.059977')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-31#t=26.115071', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-31#t=17.581738']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=54.62</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=8.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=18.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-224#t=26.987959</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_105</t>
+          <t>jaah_0</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
+          <t>schubert-winterreise_156</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
+          <t>['F#:maj/A#', 'C#:7', 'F#:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:39.560000', '0:00:57.900000')]</t>
+          <t>('0:00:25.220000', '0:00:27.170000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:02.020000', '0:00:10.620000')]</t>
+          <t>('0:00:20.200000', '0:00:22.820000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-105#t=39.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=2.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=20.2</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>jaah_30</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_189</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj', 'G:maj', 'D:maj']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:15.014000', '0:00:24.195000')]</t>
+          <t>('0:00:12.510000', '0:00:13.910000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:59.220000', '0:01:11.120000')]</t>
+          <t>('0:00:58.320000', '0:00:59.680000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=15.014']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=59.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-189#t=58.32</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>isophonics_61</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_168</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C:maj', 'A:maj', 'D:maj']]</t>
+          <t>['F#:min', 'C#', 'F#:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F', 'D', 'G']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:24.701000', '0:01:30.135000')]</t>
+          <t>('0:00:03.744784', '0:00:06.774988')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:10.090791', '0:00:12.799229')]</t>
+          <t>('0:00:14.620000', '0:00:22.040000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=84.701']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=3.744784</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-168#t=10.090791']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=14.62</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_195</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>isophonics_280</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>['E', 'B:7', 'E', 'B:7', 'E']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:44.160000', '0:00:48.160000')]</t>
+          <t>('0:01:16.560000', '0:01:34.120000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:13.180000', '0:00:19.520000')]</t>
+          <t>('0:01:01.683832', '0:01:11.056785')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=44.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=76.56</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-67#t=13.18']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=61.683832</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>schubert-winterreise_94</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>schubert-winterreise_78</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['Eb:maj', 'Bb:7/3', 'Eb:maj'], ['Eb:7', 'Ab:maj', 'Eb/3'], ['Eb:7', 'Ab:maj', 'Ab/7']]</t>
+          <t>['A#:min', 'F:maj', 'A#:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj'], ['C:7', 'F:maj', 'C:maj'], ['C:7', 'F:maj', 'F:maj/A']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:42.588000', '0:00:46.723000'), ('0:00:26.006000', '0:00:29.321000'), ('0:00:54.072000', '0:00:59.053000')]</t>
+          <t>('0:00:15.600000', '0:00:24.080000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:11.220000', '0:00:13.720000'), ('0:00:45.960000', '0:00:48.460000'), ('0:00:21.080000', '0:00:23.680000')]</t>
+          <t>('0:00:07.400000', '0:00:12.020000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=42.588', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=26.006', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=54.072']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=15.6</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=11.22', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=45.96', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=21.08']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=7.4</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
+          <t>jaah_67</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>['G:min7', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['B:min7/4', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:18.240000', '0:00:29.100000')]</t>
+          <t>('0:00:22.680000', '0:00:26.280000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:08.300000', '0:00:14.360000')]</t>
+          <t>('0:00:47.371000', '0:00:50.945000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=18.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=22.68</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=8.3']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=47.371</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
